--- a/Data/EC/NIT-9007862907.xlsx
+++ b/Data/EC/NIT-9007862907.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28107410-70CD-4AD2-B44E-FEC42844870B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A830AC-6D68-4446-89FF-B35C088569D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E290F538-EB85-4769-A68D-872554BABC8C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A77C762-6B4C-426F-A5D6-456BBE108258}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,130 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8852244</t>
+  </si>
+  <si>
+    <t>TOMAS JOSE ARRIETA MARIN</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>73153906</t>
   </si>
   <si>
     <t>EFREN GOMEZ LEAL</t>
   </si>
   <si>
-    <t>2111</t>
+    <t>1047375846</t>
+  </si>
+  <si>
+    <t>GUSTAVO PUELLO CASTELLAR</t>
+  </si>
+  <si>
+    <t>9156099</t>
+  </si>
+  <si>
+    <t>ROBINSON CASERES CAMPO</t>
+  </si>
+  <si>
+    <t>73185523</t>
+  </si>
+  <si>
+    <t>JASMEL JOSE PACHECO CONDE</t>
+  </si>
+  <si>
+    <t>1047367301</t>
+  </si>
+  <si>
+    <t>JUVENAL JOSE GUERRERO NORIEGA</t>
+  </si>
+  <si>
+    <t>7917139</t>
+  </si>
+  <si>
+    <t>RICHAR JOSE NORIEGA ZUÑIGA</t>
+  </si>
+  <si>
+    <t>1047449093</t>
+  </si>
+  <si>
+    <t>CARLOS MARIO PEREZ FUENTES</t>
+  </si>
+  <si>
+    <t>1007254770</t>
+  </si>
+  <si>
+    <t>DILSON JIMENEZ VALENZUELA</t>
+  </si>
+  <si>
+    <t>1007229311</t>
+  </si>
+  <si>
+    <t>AARON ALBERTO JIMENEZ VALENZUELA</t>
+  </si>
+  <si>
+    <t>1002323148</t>
+  </si>
+  <si>
+    <t>MAICKOL ANDRES BELLO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1049946063</t>
+  </si>
+  <si>
+    <t>KEVIN ADRIAN HERRERA LOPEZ</t>
+  </si>
+  <si>
+    <t>1001834530</t>
+  </si>
+  <si>
+    <t>EVER MAURICIO CASERES DE HORTA</t>
+  </si>
+  <si>
+    <t>19767144</t>
+  </si>
+  <si>
+    <t>FRANCISCO HERNANDEZ CERRO</t>
+  </si>
+  <si>
+    <t>14606695</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO MELENDEZ DIAZ</t>
+  </si>
+  <si>
+    <t>1193570218</t>
+  </si>
+  <si>
+    <t>KAREN YULIETH PEDRAZA VELASQUEZ</t>
+  </si>
+  <si>
+    <t>1043969207</t>
+  </si>
+  <si>
+    <t>LUIS RAFAEL VILLERO TOBAR</t>
   </si>
   <si>
     <t>1052053576</t>
@@ -80,127 +197,10 @@
     <t>JAIRO MARTINEZ VANEGAS</t>
   </si>
   <si>
-    <t>1001834530</t>
-  </si>
-  <si>
-    <t>EVER MAURICIO CASERES DE HORTA</t>
-  </si>
-  <si>
-    <t>7917139</t>
-  </si>
-  <si>
-    <t>RICHAR JOSE NORIEGA ZUÑIGA</t>
-  </si>
-  <si>
-    <t>1193570218</t>
-  </si>
-  <si>
-    <t>KAREN YULIETH PEDRAZA VELASQUEZ</t>
-  </si>
-  <si>
-    <t>1047375846</t>
-  </si>
-  <si>
-    <t>GUSTAVO PUELLO CASTELLAR</t>
-  </si>
-  <si>
-    <t>1043969207</t>
-  </si>
-  <si>
-    <t>LUIS RAFAEL VILLERO TOBAR</t>
-  </si>
-  <si>
-    <t>1049946063</t>
-  </si>
-  <si>
-    <t>KEVIN ADRIAN HERRERA LOPEZ</t>
-  </si>
-  <si>
-    <t>9156099</t>
-  </si>
-  <si>
-    <t>ROBINSON CASERES CAMPO</t>
-  </si>
-  <si>
-    <t>1007229311</t>
-  </si>
-  <si>
-    <t>AARON ALBERTO JIMENEZ VALENZUELA</t>
-  </si>
-  <si>
-    <t>73185523</t>
-  </si>
-  <si>
-    <t>JASMEL JOSE PACHECO CONDE</t>
-  </si>
-  <si>
-    <t>1047449093</t>
-  </si>
-  <si>
-    <t>CARLOS MARIO PEREZ FUENTES</t>
-  </si>
-  <si>
-    <t>1007254770</t>
-  </si>
-  <si>
-    <t>DILSON JIMENEZ VALENZUELA</t>
-  </si>
-  <si>
-    <t>1002323148</t>
-  </si>
-  <si>
-    <t>MAICKOL ANDRES BELLO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>8852244</t>
-  </si>
-  <si>
-    <t>TOMAS JOSE ARRIETA MARIN</t>
-  </si>
-  <si>
-    <t>19767144</t>
-  </si>
-  <si>
-    <t>FRANCISCO HERNANDEZ CERRO</t>
-  </si>
-  <si>
     <t>1143359509</t>
   </si>
   <si>
     <t>YEISON ENRIQUE GARCIA PEREZ</t>
-  </si>
-  <si>
-    <t>1047367301</t>
-  </si>
-  <si>
-    <t>JUVENAL JOSE GUERRERO NORIEGA</t>
-  </si>
-  <si>
-    <t>14606695</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO MELENDEZ DIAZ</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -614,7 +614,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14F8256-DBD5-0A73-B3ED-C0E4414274B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE59862E-9E86-C25A-6DD8-708011B60CD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A32BDB-3534-4965-8E11-CBB8ED0B8BD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886697F5-B28F-4BB5-BC06-37E72A8B0432}">
   <dimension ref="B2:J101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1143,10 +1143,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>32267</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,19 +1157,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>24227</v>
+        <v>44000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>0</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1180,19 +1180,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>0</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1203,19 +1203,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1226,19 +1226,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>44000</v>
       </c>
       <c r="G20" s="18">
-        <v>1100000</v>
+        <v>0</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1249,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1272,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>25439</v>
+        <v>44000</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>0</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1295,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>0</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1318,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1341,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>36341</v>
+        <v>29333</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1364,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1387,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1410,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1433,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1456,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F30" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1479,19 +1479,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F31" s="18">
-        <v>24227</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1502,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F32" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1525,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F33" s="18">
-        <v>24227</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1548,19 +1548,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="18">
-        <v>14536</v>
+        <v>29333</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>737717</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1571,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>737717</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1594,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1617,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>737717</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1640,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F38" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>1100000</v>
+        <v>737717</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1663,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1686,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F40" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>908526</v>
+        <v>737717</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1709,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>737717</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1732,16 +1732,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>24227</v>
       </c>
       <c r="G42" s="18">
         <v>908526</v>
@@ -1755,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F43" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1778,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F44" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>908526</v>
+        <v>0</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1801,16 +1801,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F45" s="18">
-        <v>36341</v>
+        <v>26650</v>
       </c>
       <c r="G45" s="18">
         <v>908526</v>
@@ -1824,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F46" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1847,13 +1847,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
@@ -1870,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E48" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1893,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F49" s="18">
         <v>36341</v>
@@ -1916,19 +1916,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G50" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1939,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F51" s="18">
         <v>36341</v>
@@ -1962,19 +1962,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F52" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G52" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1985,16 +1985,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F53" s="18">
-        <v>36341</v>
+        <v>26650</v>
       </c>
       <c r="G53" s="18">
         <v>908526</v>
@@ -2008,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F54" s="18">
         <v>36341</v>
@@ -2031,19 +2031,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F55" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2054,19 +2054,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F56" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G56" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2077,19 +2077,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2100,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2123,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F59" s="18">
         <v>36341</v>
@@ -2146,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F60" s="18">
         <v>36341</v>
@@ -2169,13 +2169,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2192,16 +2192,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F62" s="18">
-        <v>36341</v>
+        <v>26650</v>
       </c>
       <c r="G62" s="18">
         <v>908526</v>
@@ -2215,19 +2215,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2238,13 +2238,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2261,13 +2261,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="E65" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2284,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2307,19 +2307,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F67" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G67" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2330,19 +2330,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F68" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G68" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2353,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2376,16 +2376,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F70" s="18">
-        <v>36341</v>
+        <v>26650</v>
       </c>
       <c r="G70" s="18">
         <v>908526</v>
@@ -2399,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F71" s="18">
         <v>36341</v>
@@ -2422,19 +2422,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F72" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G72" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2445,13 +2445,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F73" s="18">
         <v>36341</v>
@@ -2468,13 +2468,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F74" s="18">
         <v>36341</v>
@@ -2491,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F75" s="18">
         <v>36341</v>
@@ -2514,19 +2514,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
-        <v>40000</v>
+        <v>26650</v>
       </c>
       <c r="G76" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2537,19 +2537,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G77" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2560,13 +2560,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F78" s="18">
         <v>36341</v>
@@ -2583,13 +2583,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F79" s="18">
         <v>36341</v>
@@ -2606,13 +2606,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F80" s="18">
         <v>36341</v>
@@ -2629,19 +2629,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F81" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G81" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2652,13 +2652,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F82" s="18">
         <v>36341</v>
@@ -2675,16 +2675,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F83" s="18">
-        <v>36341</v>
+        <v>24227</v>
       </c>
       <c r="G83" s="18">
         <v>908526</v>
@@ -2698,19 +2698,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F84" s="18">
-        <v>44000</v>
+        <v>26650</v>
       </c>
       <c r="G84" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2721,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F85" s="18">
         <v>36341</v>
@@ -2744,19 +2744,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F86" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G86" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2767,19 +2767,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F87" s="18">
-        <v>29333</v>
+        <v>36341</v>
       </c>
       <c r="G87" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2790,16 +2790,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F88" s="18">
-        <v>26650</v>
+        <v>36341</v>
       </c>
       <c r="G88" s="18">
         <v>908526</v>
@@ -2813,19 +2813,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F89" s="18">
-        <v>32267</v>
+        <v>36341</v>
       </c>
       <c r="G89" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2836,16 +2836,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F90" s="18">
-        <v>26650</v>
+        <v>36341</v>
       </c>
       <c r="G90" s="18">
         <v>908526</v>
@@ -2859,16 +2859,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F91" s="18">
-        <v>26650</v>
+        <v>14536</v>
       </c>
       <c r="G91" s="18">
         <v>908526</v>
@@ -2882,19 +2882,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F92" s="18">
-        <v>26650</v>
+        <v>44000</v>
       </c>
       <c r="G92" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2905,16 +2905,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F93" s="18">
-        <v>26650</v>
+        <v>25439</v>
       </c>
       <c r="G93" s="18">
         <v>908526</v>
@@ -2928,16 +2928,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F94" s="18">
-        <v>26650</v>
+        <v>24227</v>
       </c>
       <c r="G94" s="18">
         <v>908526</v>
@@ -2951,19 +2951,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F95" s="24">
-        <v>29333</v>
+        <v>36341</v>
       </c>
       <c r="G95" s="24">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>

--- a/Data/EC/NIT-9007862907.xlsx
+++ b/Data/EC/NIT-9007862907.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A830AC-6D68-4446-89FF-B35C088569D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BCA452C-7E0C-4D4C-8D83-678BD45D9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A77C762-6B4C-426F-A5D6-456BBE108258}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{547E34B0-057A-4555-8293-E390A9165D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,136 +71,136 @@
     <t>TOMAS JOSE ARRIETA MARIN</t>
   </si>
   <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>73153906</t>
+  </si>
+  <si>
+    <t>EFREN GOMEZ LEAL</t>
+  </si>
+  <si>
+    <t>1047375846</t>
+  </si>
+  <si>
+    <t>GUSTAVO PUELLO CASTELLAR</t>
+  </si>
+  <si>
+    <t>9156099</t>
+  </si>
+  <si>
+    <t>ROBINSON CASERES CAMPO</t>
+  </si>
+  <si>
+    <t>73185523</t>
+  </si>
+  <si>
+    <t>JASMEL JOSE PACHECO CONDE</t>
+  </si>
+  <si>
+    <t>1047367301</t>
+  </si>
+  <si>
+    <t>JUVENAL JOSE GUERRERO NORIEGA</t>
+  </si>
+  <si>
+    <t>7917139</t>
+  </si>
+  <si>
+    <t>RICHAR JOSE NORIEGA ZUÑIGA</t>
+  </si>
+  <si>
+    <t>1047449093</t>
+  </si>
+  <si>
+    <t>CARLOS MARIO PEREZ FUENTES</t>
+  </si>
+  <si>
+    <t>1007254770</t>
+  </si>
+  <si>
+    <t>DILSON JIMENEZ VALENZUELA</t>
+  </si>
+  <si>
+    <t>1007229311</t>
+  </si>
+  <si>
+    <t>AARON ALBERTO JIMENEZ VALENZUELA</t>
+  </si>
+  <si>
+    <t>1002323148</t>
+  </si>
+  <si>
+    <t>MAICKOL ANDRES BELLO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1049946063</t>
+  </si>
+  <si>
+    <t>KEVIN ADRIAN HERRERA LOPEZ</t>
+  </si>
+  <si>
+    <t>1001834530</t>
+  </si>
+  <si>
+    <t>EVER MAURICIO CASERES DE HORTA</t>
+  </si>
+  <si>
+    <t>19767144</t>
+  </si>
+  <si>
+    <t>FRANCISCO HERNANDEZ CERRO</t>
+  </si>
+  <si>
+    <t>14606695</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO MELENDEZ DIAZ</t>
+  </si>
+  <si>
+    <t>1193570218</t>
+  </si>
+  <si>
+    <t>KAREN YULIETH PEDRAZA VELASQUEZ</t>
+  </si>
+  <si>
+    <t>1043969207</t>
+  </si>
+  <si>
+    <t>LUIS RAFAEL VILLERO TOBAR</t>
+  </si>
+  <si>
+    <t>1052053576</t>
+  </si>
+  <si>
+    <t>JAIRO MARTINEZ VANEGAS</t>
+  </si>
+  <si>
+    <t>1143359509</t>
+  </si>
+  <si>
+    <t>YEISON ENRIQUE GARCIA PEREZ</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
     <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>73153906</t>
-  </si>
-  <si>
-    <t>EFREN GOMEZ LEAL</t>
-  </si>
-  <si>
-    <t>1047375846</t>
-  </si>
-  <si>
-    <t>GUSTAVO PUELLO CASTELLAR</t>
-  </si>
-  <si>
-    <t>9156099</t>
-  </si>
-  <si>
-    <t>ROBINSON CASERES CAMPO</t>
-  </si>
-  <si>
-    <t>73185523</t>
-  </si>
-  <si>
-    <t>JASMEL JOSE PACHECO CONDE</t>
-  </si>
-  <si>
-    <t>1047367301</t>
-  </si>
-  <si>
-    <t>JUVENAL JOSE GUERRERO NORIEGA</t>
-  </si>
-  <si>
-    <t>7917139</t>
-  </si>
-  <si>
-    <t>RICHAR JOSE NORIEGA ZUÑIGA</t>
-  </si>
-  <si>
-    <t>1047449093</t>
-  </si>
-  <si>
-    <t>CARLOS MARIO PEREZ FUENTES</t>
-  </si>
-  <si>
-    <t>1007254770</t>
-  </si>
-  <si>
-    <t>DILSON JIMENEZ VALENZUELA</t>
-  </si>
-  <si>
-    <t>1007229311</t>
-  </si>
-  <si>
-    <t>AARON ALBERTO JIMENEZ VALENZUELA</t>
-  </si>
-  <si>
-    <t>1002323148</t>
-  </si>
-  <si>
-    <t>MAICKOL ANDRES BELLO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1049946063</t>
-  </si>
-  <si>
-    <t>KEVIN ADRIAN HERRERA LOPEZ</t>
-  </si>
-  <si>
-    <t>1001834530</t>
-  </si>
-  <si>
-    <t>EVER MAURICIO CASERES DE HORTA</t>
-  </si>
-  <si>
-    <t>19767144</t>
-  </si>
-  <si>
-    <t>FRANCISCO HERNANDEZ CERRO</t>
-  </si>
-  <si>
-    <t>14606695</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO MELENDEZ DIAZ</t>
-  </si>
-  <si>
-    <t>1193570218</t>
-  </si>
-  <si>
-    <t>KAREN YULIETH PEDRAZA VELASQUEZ</t>
-  </si>
-  <si>
-    <t>1043969207</t>
-  </si>
-  <si>
-    <t>LUIS RAFAEL VILLERO TOBAR</t>
-  </si>
-  <si>
-    <t>1052053576</t>
-  </si>
-  <si>
-    <t>JAIRO MARTINEZ VANEGAS</t>
-  </si>
-  <si>
-    <t>1143359509</t>
-  </si>
-  <si>
-    <t>YEISON ENRIQUE GARCIA PEREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -299,7 +299,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -312,9 +314,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -514,23 +514,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,10 +558,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,7 +614,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE59862E-9E86-C25A-6DD8-708011B60CD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BB70EF-669A-22FD-F779-014C15DFE993}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886697F5-B28F-4BB5-BC06-37E72A8B0432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D99CC8-5812-439A-9931-A91DA6FF1B51}">
   <dimension ref="B2:J101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1143,10 +1143,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32267</v>
+        <v>44000</v>
       </c>
       <c r="G16" s="18">
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,19 +1157,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1180,19 +1180,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1203,19 +1203,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1226,19 +1226,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1249,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>44000</v>
+        <v>24227</v>
       </c>
       <c r="G21" s="18">
-        <v>0</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1272,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1295,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1318,19 +1318,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1341,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>29333</v>
+        <v>36341</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1364,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1387,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1410,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1433,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>24227</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1456,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>14536</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1479,19 +1479,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1502,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>25439</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1525,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>24227</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1548,19 +1548,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="18">
-        <v>29333</v>
+        <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1571,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>1100000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1594,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1617,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1640,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>908526</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1663,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1686,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>908526</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1709,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1732,16 +1732,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F42" s="18">
-        <v>24227</v>
+        <v>36341</v>
       </c>
       <c r="G42" s="18">
         <v>908526</v>
@@ -1755,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1778,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="G44" s="18">
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1801,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F45" s="18">
-        <v>26650</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1824,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F46" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1847,13 +1847,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
@@ -1870,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1893,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E49" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F49" s="18">
         <v>36341</v>
@@ -1916,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1939,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
         <v>36341</v>
@@ -1962,13 +1962,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
         <v>36341</v>
@@ -1985,19 +1985,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
-        <v>26650</v>
+        <v>44000</v>
       </c>
       <c r="G53" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2008,19 +2008,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2031,19 +2031,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2054,13 +2054,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F56" s="18">
         <v>36341</v>
@@ -2077,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2100,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2123,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="E59" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F59" s="18">
         <v>36341</v>
@@ -2146,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F60" s="18">
         <v>36341</v>
@@ -2169,13 +2169,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2192,19 +2192,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F62" s="18">
-        <v>26650</v>
+        <v>44000</v>
       </c>
       <c r="G62" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2215,19 +2215,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F63" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2238,19 +2238,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F64" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2261,13 +2261,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2284,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2307,13 +2307,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2330,13 +2330,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2353,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2376,19 +2376,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F70" s="18">
-        <v>26650</v>
+        <v>44000</v>
       </c>
       <c r="G70" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2399,19 +2399,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F71" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G71" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2422,19 +2422,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F72" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2445,13 +2445,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F73" s="18">
         <v>36341</v>
@@ -2468,13 +2468,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F74" s="18">
         <v>36341</v>
@@ -2491,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F75" s="18">
         <v>36341</v>
@@ -2514,16 +2514,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F76" s="18">
-        <v>26650</v>
+        <v>36341</v>
       </c>
       <c r="G76" s="18">
         <v>908526</v>
@@ -2537,13 +2537,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F77" s="18">
         <v>36341</v>
@@ -2560,13 +2560,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F78" s="18">
         <v>36341</v>
@@ -2583,19 +2583,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F79" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G79" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2606,19 +2606,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F80" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G80" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2629,19 +2629,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F81" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G81" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2652,13 +2652,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F82" s="18">
         <v>36341</v>
@@ -2675,16 +2675,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F83" s="18">
-        <v>24227</v>
+        <v>36341</v>
       </c>
       <c r="G83" s="18">
         <v>908526</v>
@@ -2698,16 +2698,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F84" s="18">
-        <v>26650</v>
+        <v>36341</v>
       </c>
       <c r="G84" s="18">
         <v>908526</v>
@@ -2721,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F85" s="18">
         <v>36341</v>
@@ -2744,13 +2744,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F86" s="18">
         <v>36341</v>
@@ -2767,19 +2767,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F87" s="18">
-        <v>36341</v>
+        <v>32267</v>
       </c>
       <c r="G87" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2790,19 +2790,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F88" s="18">
-        <v>36341</v>
+        <v>29333</v>
       </c>
       <c r="G88" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2813,19 +2813,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F89" s="18">
-        <v>36341</v>
+        <v>29333</v>
       </c>
       <c r="G89" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2836,16 +2836,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F90" s="18">
-        <v>36341</v>
+        <v>26650</v>
       </c>
       <c r="G90" s="18">
         <v>908526</v>
@@ -2859,16 +2859,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F91" s="18">
-        <v>14536</v>
+        <v>26650</v>
       </c>
       <c r="G91" s="18">
         <v>908526</v>
@@ -2882,19 +2882,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F92" s="18">
-        <v>44000</v>
+        <v>26650</v>
       </c>
       <c r="G92" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2905,16 +2905,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F93" s="18">
-        <v>25439</v>
+        <v>26650</v>
       </c>
       <c r="G93" s="18">
         <v>908526</v>
@@ -2928,16 +2928,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F94" s="18">
-        <v>24227</v>
+        <v>26650</v>
       </c>
       <c r="G94" s="18">
         <v>908526</v>
@@ -2951,16 +2951,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D95" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E95" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="F95" s="24">
-        <v>36341</v>
+        <v>26650</v>
       </c>
       <c r="G95" s="24">
         <v>908526</v>
